--- a/data/production/5/ERP Data/8-28-2025/Yarn_Demand_By_Style.xlsx
+++ b/data/production/5/ERP Data/8-28-2025/Yarn_Demand_By_Style.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_795C4E8C741B357F2C09F3DCC3C519921085E075" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B427378-725B-48E7-B85E-867E2AD5A097}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalee\beverly_knits_erp_v2\data\production\5\ERP Data\8-28-2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7600B-A266-48E0-90ED-9064D5013C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet!$A$1:$F$6332</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -587,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,9 +660,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -695,7 +700,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -801,7 +806,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,18 +963,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625"/>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="3" max="3" width="15.5703125"/>
-    <col min="4" max="4" width="14.7109375"/>
-    <col min="5" max="12" width="13.28515625"/>
-    <col min="13" max="13" width="10.140625"/>
+    <col min="1" max="1" width="20.26953125"/>
+    <col min="2" max="2" width="9.54296875"/>
+    <col min="3" max="3" width="15.54296875"/>
+    <col min="4" max="4" width="14.7265625"/>
+    <col min="5" max="12" width="13.26953125"/>
+    <col min="13" max="13" width="10.1796875"/>
     <col min="14" max="14" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>1231.1579999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>115.842</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>1976.1742999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>8628.7916000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>4480.3341</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>8689.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>2106.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>3198.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>48.08</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>751.92</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>3556.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1410,7 @@
         <v>7548.0075999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>6101.1923999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>2371.5704999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>1001.9295</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>15441.052</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>13323.948</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>175.392</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>1216.6079999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1662,7 @@
         <v>13.1166</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>90.983400000000302</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>577.18079999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>4003.6192000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>11162.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>23.2179</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>16.882100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1919,7 +1924,7 @@
         <v>97.037700000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>10.6623</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>1999.3371999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>1441.8628000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>245.96860000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>1023.9158</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>1590.2156</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>8271.0252</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>3264.5747999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2237,7 +2242,7 @@
         <v>960.87819999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>488.09550000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>465.12630000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -2321,7 +2326,7 @@
         <v>371.09</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2354,7 @@
         <v>1695.7950000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>2248.1149999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -2429,7 +2434,7 @@
         <v>747.2</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>747.2</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>1.4670000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>47.824200000000097</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>48.5088000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -2625,7 +2630,7 @@
         <v>204.048</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>820.11599999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>694.548</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -2709,7 +2714,7 @@
         <v>217.78200000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>25.506</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>42</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>250.1848</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>995.30039999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>269.22059999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>13.597</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>1191.0971999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
@@ -3017,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>44</v>
       </c>
@@ -3043,7 +3048,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>457.5</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>44</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>45</v>
       </c>
@@ -3175,7 +3180,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -3287,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>46</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>46</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>46</v>
       </c>
@@ -3411,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>46</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>47</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
@@ -3519,7 +3524,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>48</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>841.75</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
@@ -3631,7 +3636,7 @@
         <v>1332.5</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>48</v>
       </c>
@@ -3659,7 +3664,7 @@
         <v>529.75</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -3715,7 +3720,7 @@
         <v>398.68200000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>206.72399999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>49</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>644.78200000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>206.72399999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>49</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>1004.088</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>50</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>50</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>50</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>213.75</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>52</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>3101.2631999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>5441.8392000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>52</v>
       </c>
@@ -4187,7 +4192,7 @@
         <v>1599.3936000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>52</v>
       </c>
@@ -4219,7 +4224,7 @@
         <v>6183.0216</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>52</v>
       </c>
@@ -4251,7 +4256,7 @@
         <v>117.0288</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>2106.5183999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>52</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>955.73519999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>53</v>
       </c>
@@ -4341,7 +4346,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>53</v>
       </c>
@@ -4393,7 +4398,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>53</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>1.204</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>53</v>
       </c>
@@ -4445,7 +4450,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>53</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>53</v>
       </c>
@@ -4497,7 +4502,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>54</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>4109.8419999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>54</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>6003.14</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>54</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>2078.0100000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>54</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>6949.7889999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>54</v>
       </c>
@@ -4677,7 +4682,7 @@
         <v>138.53399999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>2724.502</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>54</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>1085.183</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>236.25</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>55</v>
       </c>
@@ -4801,7 +4806,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>55</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>55</v>
       </c>
@@ -4853,7 +4858,7 @@
         <v>829.5</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>55</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>222.75</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>56</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>56</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>445.5</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>56</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>1380.5</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>57</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>57</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>57</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>57</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>57</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>58</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>3840.6592000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>58</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>4152.0640000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>58</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>18320.982400000001</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>58</v>
       </c>
@@ -5313,7 +5318,7 @@
         <v>363.30560000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>58</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>3581.1552000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>58</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>2024.1312</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>58</v>
       </c>
@@ -5415,7 +5420,7 @@
         <v>19618.502400000001</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>59</v>
       </c>
@@ -5443,7 +5448,7 @@
         <v>325.69200000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>59</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>1688.22</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>20.916</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>59</v>
       </c>
@@ -5527,7 +5532,7 @@
         <v>158.364</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>59</v>
       </c>
@@ -5555,7 +5560,7 @@
         <v>794.80799999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>60</v>
       </c>
@@ -5581,7 +5586,7 @@
         <v>160.29900000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>60</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>435.38</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>60</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>914.298</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>60</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>469.02300000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>61</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>316.887</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>61</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>392.62099999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>61</v>
       </c>
@@ -5743,7 +5748,7 @@
         <v>446.43200000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>61</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>837.06</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>62</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>62</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>62</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>63</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>63</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>63</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>63</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>64</v>
       </c>
@@ -5965,7 +5970,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>64</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>0.43659999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>1.0656000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>64</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>64</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>1.6982999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>65</v>
       </c>
@@ -6095,7 +6100,7 @@
         <v>21.711600000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>65</v>
       </c>
@@ -6121,7 +6126,7 @@
         <v>11.0952</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>65</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>3.1932</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>66</v>
       </c>
@@ -6173,7 +6178,7 @@
         <v>302.75</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>66</v>
       </c>
@@ -6199,7 +6204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>66</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>66</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>484.75</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>67</v>
       </c>
@@ -6305,7 +6310,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>67</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>67</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>67</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>67</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>67</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>67</v>
       </c>
@@ -6473,7 +6478,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>67</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>68</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>695.75</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>68</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>68</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>68</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>68</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>586.5</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>68</v>
       </c>
@@ -6681,7 +6686,7 @@
         <v>1391.5</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>68</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>707.25</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>68</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>69</v>
       </c>
@@ -6767,7 +6772,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>69</v>
       </c>
@@ -6793,7 +6798,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>69</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>69</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>69</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>69</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>69</v>
       </c>
@@ -6923,7 +6928,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>69</v>
       </c>
@@ -6949,7 +6954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>70</v>
       </c>
@@ -6977,7 +6982,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>70</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>70</v>
       </c>
@@ -7033,7 +7038,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>70</v>
       </c>
@@ -7061,7 +7066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>70</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>70</v>
       </c>
@@ -7117,7 +7122,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>70</v>
       </c>
@@ -7145,7 +7150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>70</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>71</v>
       </c>
@@ -7207,7 +7212,7 @@
         <v>1530.9525000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>71</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>797.10749999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>71</v>
       </c>
@@ -7275,7 +7280,7 @@
         <v>3542.7</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>71</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>797.10749999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>71</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>1290.5550000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>71</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>3061.9050000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>71</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>1556.2574999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>71</v>
       </c>
@@ -7445,7 +7450,7 @@
         <v>75.915000000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>72</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>1211.7061000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>72</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>630.88829999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>72</v>
       </c>
@@ -7535,7 +7540,7 @@
         <v>2803.9479999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>72</v>
       </c>
@@ -7565,7 +7570,7 @@
         <v>630.88829999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>72</v>
       </c>
@@ -7595,7 +7600,7 @@
         <v>1021.4382000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>72</v>
       </c>
@@ -7625,7 +7630,7 @@
         <v>2423.4122000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>72</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>1231.7343000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>72</v>
       </c>
@@ -7685,7 +7690,7 @@
         <v>60.084600000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>73</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>683.65</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>73</v>
       </c>
@@ -7745,7 +7750,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>73</v>
       </c>
@@ -7775,7 +7780,7 @@
         <v>1833.15</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>73</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>356.95</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>73</v>
       </c>
@@ -7835,7 +7840,7 @@
         <v>683.65</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>73</v>
       </c>
@@ -7865,7 +7870,7 @@
         <v>1433.85</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>73</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>659.45</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>73</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>74</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>393.25</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>74</v>
       </c>
@@ -7981,7 +7986,7 @@
         <v>204.75</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>74</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>74</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>204.75</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>74</v>
       </c>
@@ -8065,7 +8070,7 @@
         <v>331.5</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>74</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>786.5</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>74</v>
       </c>
@@ -8121,7 +8126,7 @@
         <v>399.75</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>74</v>
       </c>
@@ -8149,7 +8154,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>75</v>
       </c>
@@ -8189,7 +8194,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>75</v>
       </c>
@@ -8229,7 +8234,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>75</v>
       </c>
@@ -8269,7 +8274,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>75</v>
       </c>
@@ -8309,7 +8314,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>75</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>75</v>
       </c>
@@ -8389,7 +8394,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>75</v>
       </c>
@@ -8429,7 +8434,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>75</v>
       </c>
@@ -8469,7 +8474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>76</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>65.801500000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>76</v>
       </c>
@@ -8521,7 +8526,7 @@
         <v>78.180000000000007</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>76</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>164.178</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>76</v>
       </c>
@@ -8573,7 +8578,7 @@
         <v>67.104500000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>76</v>
       </c>
@@ -8599,7 +8604,7 @@
         <v>276.23599999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>77</v>
       </c>
@@ -8629,7 +8634,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>77</v>
       </c>
@@ -8659,7 +8664,7 @@
         <v>1601.25</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>77</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>572.25</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>77</v>
       </c>
@@ -8719,7 +8724,7 @@
         <v>2047.5</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>77</v>
       </c>
@@ -8749,7 +8754,7 @@
         <v>530.25</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>77</v>
       </c>
@@ -8779,7 +8784,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>78</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>826.3492</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>78</v>
       </c>
@@ -8843,7 +8848,7 @@
         <v>719.49369999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>78</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>2742.6244999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>78</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>762.23590000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>78</v>
       </c>
@@ -8939,7 +8944,7 @@
         <v>1645.5746999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>78</v>
       </c>
@@ -8971,7 +8976,7 @@
         <v>49.865900000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>78</v>
       </c>
@@ -9003,7 +9008,7 @@
         <v>377.55610000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>79</v>
       </c>
@@ -9027,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>79</v>
       </c>
@@ -9051,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>79</v>
       </c>
@@ -9075,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>79</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>79</v>
       </c>
@@ -9123,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>79</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>80</v>
       </c>
@@ -9181,7 +9186,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>80</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>80</v>
       </c>
@@ -9249,7 +9254,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>80</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>80</v>
       </c>
@@ -9317,7 +9322,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>80</v>
       </c>
@@ -9351,7 +9356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>81</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>1887.5</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>81</v>
       </c>
@@ -9411,7 +9416,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>81</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>2518.75</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>81</v>
       </c>
@@ -9471,7 +9476,7 @@
         <v>656.25</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>81</v>
       </c>
@@ -9501,7 +9506,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>82</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>82</v>
       </c>
@@ -9569,7 +9574,7 @@
         <v>2177.5</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>82</v>
       </c>
@@ -9603,7 +9608,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>82</v>
       </c>
@@ -9637,7 +9642,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>82</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>82</v>
       </c>
@@ -9705,7 +9710,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>82</v>
       </c>
@@ -9739,7 +9744,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>83</v>
       </c>
@@ -9765,7 +9770,7 @@
         <v>50.112000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>84</v>
       </c>
@@ -9791,7 +9796,7 @@
         <v>8.2550000000000008</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>84</v>
       </c>
@@ -9817,7 +9822,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>84</v>
       </c>
@@ -9843,7 +9848,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>84</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>84</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>84</v>
       </c>
@@ -9921,7 +9926,7 @@
         <v>4.7350000000000003</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>85</v>
       </c>
@@ -9947,7 +9952,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>85</v>
       </c>
@@ -9973,7 +9978,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>85</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>85</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>8.2149999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>85</v>
       </c>
@@ -10051,7 +10056,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>85</v>
       </c>
@@ -10077,7 +10082,7 @@
         <v>22.055</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>86</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>86</v>
       </c>
@@ -10129,7 +10134,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>86</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>86</v>
       </c>
@@ -10181,7 +10186,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>86</v>
       </c>
@@ -10207,7 +10212,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>86</v>
       </c>
@@ -10233,7 +10238,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>87</v>
       </c>
@@ -10259,7 +10264,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>87</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>4.7350000000000003</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>87</v>
       </c>
@@ -10311,7 +10316,7 @@
         <v>8.2550000000000008</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>87</v>
       </c>
@@ -10337,7 +10342,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>87</v>
       </c>
@@ -10363,7 +10368,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>87</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>88</v>
       </c>
@@ -10413,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>88</v>
       </c>
@@ -10437,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>88</v>
       </c>
@@ -10461,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>88</v>
       </c>
@@ -10485,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>88</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>89</v>
       </c>
@@ -10535,7 +10540,7 @@
         <v>10.565</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>89</v>
       </c>
@@ -10561,7 +10566,7 @@
         <v>3.4550000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>89</v>
       </c>
@@ -10587,7 +10592,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>89</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>5.0650000000000004</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>89</v>
       </c>
@@ -10639,7 +10644,7 @@
         <v>27.015000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>90</v>
       </c>
@@ -10665,7 +10670,7 @@
         <v>6.9349999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>90</v>
       </c>
@@ -10691,7 +10696,7 @@
         <v>16.004999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>90</v>
       </c>
@@ -10717,7 +10722,7 @@
         <v>13.875</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>90</v>
       </c>
@@ -10743,7 +10748,7 @@
         <v>6.9349999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>90</v>
       </c>
@@ -10769,7 +10774,7 @@
         <v>5.1349999999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>90</v>
       </c>
@@ -10795,7 +10800,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>91</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>91</v>
       </c>
@@ -10847,7 +10852,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>91</v>
       </c>
@@ -10873,7 +10878,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>91</v>
       </c>
@@ -10899,7 +10904,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>91</v>
       </c>
@@ -10925,7 +10930,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>91</v>
       </c>
@@ -10951,7 +10956,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>92</v>
       </c>
@@ -10975,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>93</v>
       </c>
@@ -11017,7 +11022,7 @@
         <v>12899.8</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>94</v>
       </c>
@@ -11043,7 +11048,7 @@
         <v>1517.6</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>95</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>0.39999999999997699</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>96</v>
       </c>
@@ -11095,7 +11100,7 @@
         <v>39.599999999999902</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>97</v>
       </c>
@@ -11121,7 +11126,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>98</v>
       </c>
@@ -11155,7 +11160,7 @@
         <v>27275.8</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>99</v>
       </c>
@@ -11189,7 +11194,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>100</v>
       </c>
@@ -11215,7 +11220,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>101</v>
       </c>
@@ -11241,7 +11246,7 @@
         <v>0.332100000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>101</v>
       </c>
@@ -11267,7 +11272,7 @@
         <v>5.7400000000000298E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>101</v>
       </c>
@@ -11293,7 +11298,7 @@
         <v>3.7105000000000201</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>102</v>
       </c>
@@ -11319,7 +11324,7 @@
         <v>6.12000000000009E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>102</v>
       </c>
@@ -11345,7 +11350,7 @@
         <v>0.33880000000000499</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>103</v>
       </c>
@@ -11371,7 +11376,7 @@
         <v>64.541399999999996</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>103</v>
       </c>
@@ -11397,7 +11402,7 @@
         <v>11.6586</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>104</v>
       </c>
@@ -11421,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>104</v>
       </c>
@@ -11445,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>105</v>
       </c>
@@ -11469,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>105</v>
       </c>
@@ -11493,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>105</v>
       </c>
@@ -11517,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>106</v>
       </c>
@@ -11543,7 +11548,7 @@
         <v>0.30680000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>107</v>
       </c>
@@ -11569,7 +11574,7 @@
         <v>2.4000000000000101E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>107</v>
       </c>
@@ -11595,7 +11600,7 @@
         <v>0.24840000000000101</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>107</v>
       </c>
@@ -11621,7 +11626,7 @@
         <v>0.321600000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>107</v>
       </c>
@@ -11647,7 +11652,7 @@
         <v>0.60600000000000098</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>108</v>
       </c>
@@ -11671,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>108</v>
       </c>
@@ -11695,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>108</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>109</v>
       </c>
@@ -11745,7 +11750,7 @@
         <v>6.2999999999999402E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>109</v>
       </c>
@@ -11771,7 +11776,7 @@
         <v>6.5399999999999403E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>109</v>
       </c>
@@ -11797,7 +11802,7 @@
         <v>0.228299999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>110</v>
       </c>
@@ -11823,7 +11828,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>110</v>
       </c>
@@ -11849,7 +11854,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>111</v>
       </c>
@@ -11873,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>111</v>
       </c>
@@ -11897,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>112</v>
       </c>
@@ -11921,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>112</v>
       </c>
@@ -11945,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>112</v>
       </c>
@@ -11969,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>112</v>
       </c>
@@ -11993,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>113</v>
       </c>
@@ -12019,7 +12024,7 @@
         <v>9.8999999999999106E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>113</v>
       </c>
@@ -12045,7 +12050,7 @@
         <v>0.29009999999999703</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>114</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>114</v>
       </c>
@@ -12093,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>114</v>
       </c>
@@ -12117,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>114</v>
       </c>
@@ -12141,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>115</v>
       </c>
@@ -12165,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>115</v>
       </c>
@@ -12189,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>115</v>
       </c>
@@ -12213,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>115</v>
       </c>
@@ -12237,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>116</v>
       </c>
@@ -12263,7 +12268,7 @@
         <v>0.146700000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>116</v>
       </c>
@@ -12289,7 +12294,7 @@
         <v>0.74340000000000495</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>116</v>
       </c>
@@ -12315,7 +12320,7 @@
         <v>9.9000000000000598E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>117</v>
       </c>
@@ -12341,7 +12346,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>117</v>
       </c>
@@ -12367,7 +12372,7 @@
         <v>1.2864</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>117</v>
       </c>
@@ -12393,7 +12398,7 @@
         <v>1.0728</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>118</v>
       </c>
@@ -12421,7 +12426,7 @@
         <v>1678.7</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>119</v>
       </c>
@@ -12447,7 +12452,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>120</v>
       </c>
@@ -12473,7 +12478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>120</v>
       </c>
@@ -12499,7 +12504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>121</v>
       </c>
@@ -12525,7 +12530,7 @@
         <v>0.58560000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>121</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>2.6143999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>122</v>
       </c>
@@ -12577,7 +12582,7 @@
         <v>0.33660000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>122</v>
       </c>
@@ -12603,7 +12608,7 @@
         <v>13.068</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>122</v>
       </c>
@@ -12629,7 +12634,7 @@
         <v>6.3954000000000004</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>123</v>
       </c>
@@ -12653,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>123</v>
       </c>
@@ -12677,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>124</v>
       </c>
@@ -12701,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>124</v>
       </c>
@@ -12725,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>125</v>
       </c>
@@ -12749,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>125</v>
       </c>
@@ -12773,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>126</v>
       </c>
@@ -12797,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>126</v>
       </c>
@@ -12821,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>127</v>
       </c>
@@ -12845,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>127</v>
       </c>
@@ -12869,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>128</v>
       </c>
@@ -12893,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>128</v>
       </c>
@@ -12917,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>129</v>
       </c>
@@ -12941,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>130</v>
       </c>
@@ -12965,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>131</v>
       </c>
@@ -12989,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>132</v>
       </c>
@@ -13013,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>133</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>134</v>
       </c>
@@ -13061,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>135</v>
       </c>
@@ -13089,7 +13094,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>136</v>
       </c>
@@ -13113,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>136</v>
       </c>
@@ -13137,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>137</v>
       </c>
@@ -13163,7 +13168,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>137</v>
       </c>
@@ -13189,7 +13194,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>137</v>
       </c>
@@ -13215,7 +13220,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>138</v>
       </c>
@@ -13241,7 +13246,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>138</v>
       </c>
@@ -13267,7 +13272,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>138</v>
       </c>
@@ -13293,7 +13298,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>139</v>
       </c>
@@ -13317,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>139</v>
       </c>
@@ -13341,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>140</v>
       </c>
@@ -13365,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>140</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>141</v>
       </c>
@@ -13415,7 +13420,7 @@
         <v>37.412179999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>141</v>
       </c>
@@ -13441,7 +13446,7 @@
         <v>10.68782</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>142</v>
       </c>
@@ -13465,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>142</v>
       </c>
@@ -13489,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>143</v>
       </c>
@@ -13515,7 +13520,7 @@
         <v>1.2857400000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>143</v>
       </c>
@@ -13541,7 +13546,7 @@
         <v>0.51426000000000005</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>144</v>
       </c>
@@ -13565,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>144</v>
       </c>
@@ -13589,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>145</v>
       </c>
@@ -13615,7 +13620,7 @@
         <v>54.879600000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>145</v>
       </c>
@@ -13641,7 +13646,7 @@
         <v>138.36930000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>145</v>
       </c>
@@ -13667,7 +13672,7 @@
         <v>55.751100000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>146</v>
       </c>
@@ -13693,7 +13698,7 @@
         <v>1.50003</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>146</v>
       </c>
@@ -13719,7 +13724,7 @@
         <v>0.59997</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>147</v>
       </c>
@@ -13745,7 +13750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>148</v>
       </c>
@@ -13771,7 +13776,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>149</v>
       </c>
@@ -13797,7 +13802,7 @@
         <v>88.77</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>149</v>
       </c>
@@ -13823,7 +13828,7 @@
         <v>271.15199999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>149</v>
       </c>
@@ -13849,7 +13854,7 @@
         <v>88.77</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>149</v>
       </c>
@@ -13875,7 +13880,7 @@
         <v>14.526</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>149</v>
       </c>
@@ -13901,7 +13906,7 @@
         <v>74.781999999999996</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>150</v>
       </c>
@@ -13945,7 +13950,7 @@
         <v>2106.7395999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>150</v>
       </c>
@@ -13989,7 +13994,7 @@
         <v>2500.806</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>150</v>
       </c>
@@ -14033,7 +14038,7 @@
         <v>7638.8256000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>150</v>
       </c>
@@ -14077,7 +14082,7 @@
         <v>2500.806</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>150</v>
       </c>
@@ -14121,7 +14126,7 @@
         <v>409.22280000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>151</v>
       </c>
@@ -14147,7 +14152,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>151</v>
       </c>
@@ -14173,7 +14178,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>151</v>
       </c>
@@ -14199,7 +14204,7 @@
         <v>47.055</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>152</v>
       </c>
@@ -14225,7 +14230,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>152</v>
       </c>
@@ -14251,7 +14256,7 @@
         <v>1.365</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>152</v>
       </c>
@@ -14277,7 +14282,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>153</v>
       </c>
@@ -14303,7 +14308,7 @@
         <v>16.584</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>153</v>
       </c>
@@ -14329,7 +14334,7 @@
         <v>6.5960000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>153</v>
       </c>
@@ -14355,7 +14360,7 @@
         <v>12.552</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>153</v>
       </c>
@@ -14381,7 +14386,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>153</v>
       </c>
@@ -14407,7 +14412,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>154</v>
       </c>
@@ -14445,7 +14450,7 @@
         <v>975.59280000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>154</v>
       </c>
@@ -14483,7 +14488,7 @@
         <v>762.96360000000004</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>154</v>
       </c>
@@ -14521,7 +14526,7 @@
         <v>1605.1420000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>154</v>
       </c>
@@ -14559,7 +14564,7 @@
         <v>825.50160000000005</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>155</v>
       </c>
@@ -14585,7 +14590,7 @@
         <v>232.65</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>155</v>
       </c>
@@ -14611,7 +14616,7 @@
         <v>61.875</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>155</v>
       </c>
@@ -14637,7 +14642,7 @@
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>155</v>
       </c>
@@ -14663,7 +14668,7 @@
         <v>169.785</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>155</v>
       </c>
@@ -14689,7 +14694,7 @@
         <v>27.225000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>156</v>
       </c>
@@ -14733,7 +14738,7 @@
         <v>51320.800000000003</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>157</v>
       </c>
@@ -14763,7 +14768,7 @@
         <v>3289.5862999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>157</v>
       </c>
@@ -14793,7 +14798,7 @@
         <v>1779.1137000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>158</v>
       </c>
@@ -14819,7 +14824,7 @@
         <v>102.6996</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>158</v>
       </c>
@@ -14845,7 +14850,7 @@
         <v>276.09820000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>158</v>
       </c>
@@ -14871,7 +14876,7 @@
         <v>4.4652000000000003</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>158</v>
       </c>
@@ -14897,7 +14902,7 @@
         <v>311.81979999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>158</v>
       </c>
@@ -14923,7 +14928,7 @@
         <v>49.117199999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>159</v>
       </c>
@@ -14949,7 +14954,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>159</v>
       </c>
@@ -14975,7 +14980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>159</v>
       </c>
@@ -15001,7 +15006,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>159</v>
       </c>
@@ -15027,7 +15032,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>159</v>
       </c>
@@ -15053,7 +15058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>160</v>
       </c>
@@ -15079,7 +15084,7 @@
         <v>36.381239999999998</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>160</v>
       </c>
@@ -15105,7 +15110,7 @@
         <v>1262.94876</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>161</v>
       </c>
@@ -15131,7 +15136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>161</v>
       </c>
@@ -15157,7 +15162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>161</v>
       </c>
@@ -15183,7 +15188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>161</v>
       </c>
@@ -15209,7 +15214,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>161</v>
       </c>
@@ -15235,7 +15240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>162</v>
       </c>
@@ -15263,7 +15268,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>162</v>
       </c>
@@ -15291,7 +15296,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>162</v>
       </c>
@@ -15319,7 +15324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>162</v>
       </c>
@@ -15347,7 +15352,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>162</v>
       </c>
@@ -15375,7 +15380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>163</v>
       </c>
@@ -15403,7 +15408,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>163</v>
       </c>
@@ -15431,7 +15436,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>163</v>
       </c>
@@ -15459,7 +15464,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>163</v>
       </c>
@@ -15487,7 +15492,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>164</v>
       </c>
@@ -15511,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>165</v>
       </c>
@@ -15541,7 +15546,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>166</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>167</v>
       </c>
@@ -15593,7 +15598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>168</v>
       </c>
@@ -15619,7 +15624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>169</v>
       </c>
@@ -15645,7 +15650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>170</v>
       </c>
@@ -15671,7 +15676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>171</v>
       </c>
@@ -15697,7 +15702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>172</v>
       </c>
@@ -15723,7 +15728,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>172</v>
       </c>
@@ -15749,7 +15754,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>173</v>
       </c>
@@ -15785,7 +15790,7 @@
         <v>30859.8</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>174</v>
       </c>
@@ -15815,7 +15820,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>175</v>
       </c>
@@ -15841,7 +15846,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>175</v>
       </c>
@@ -15867,7 +15872,7 @@
         <v>296.10000000000002</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>176</v>
       </c>
@@ -15893,7 +15898,7 @@
         <v>77.200000000000699</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>177</v>
       </c>
@@ -15921,7 +15926,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>178</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>62.899999999999601</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>179</v>
       </c>
@@ -15973,7 +15978,7 @@
         <v>31.400000000000102</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>180</v>
       </c>
@@ -16001,7 +16006,7 @@
         <v>1009.25</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>180</v>
       </c>
